--- a/delta2/evidence/dfir/2020-10-18-dfir--ransom-ryuk--v1.1.xlsx
+++ b/delta2/evidence/dfir/2020-10-18-dfir--ransom-ryuk--v1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/evidence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/evidence/dfir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACA034A-9175-1C4E-8F20-40B86F966DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9027D0E-BF1F-1147-982C-AA147EC1455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" activeTab="3" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Link" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
   <si>
     <t>Description</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Protocol</t>
   </si>
   <si>
-    <t>netcon--winos</t>
-  </si>
-  <si>
     <t>CommandLine</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>ServiceStartType</t>
   </si>
   <si>
-    <t>process-access--winos</t>
-  </si>
-  <si>
     <t>Access</t>
   </si>
   <si>
@@ -340,9 +334,6 @@
     <t>C:\PerfLogs\arti64.dll</t>
   </si>
   <si>
-    <t>HackTool</t>
-  </si>
-  <si>
     <t>CVE</t>
   </si>
   <si>
@@ -370,9 +361,6 @@
     <t>ET POLICY SMB2 NT Create AndX Request For an Executable File</t>
   </si>
   <si>
-    <t>ETPRO-Network</t>
-  </si>
-  <si>
     <t>https://github.com/Neo23x0/sigma/blob/master/rules/windows/malware/win_mal_ryuk.yml</t>
   </si>
   <si>
@@ -397,9 +385,6 @@
     <t>Bazaar</t>
   </si>
   <si>
-    <t>IA</t>
-  </si>
-  <si>
     <t>Phishing</t>
   </si>
   <si>
@@ -413,6 +398,42 @@
   </si>
   <si>
     <t>file-create--winos</t>
+  </si>
+  <si>
+    <t>AlertSource [Sigma, EtPro]</t>
+  </si>
+  <si>
+    <t>edr specific data like [mde]</t>
+  </si>
+  <si>
+    <t>process-access</t>
+  </si>
+  <si>
+    <t>netcon</t>
+  </si>
+  <si>
+    <t>file-create</t>
+  </si>
+  <si>
+    <t>process-create</t>
+  </si>
+  <si>
+    <t>Ioc Tag Like [TTP, C2, Tool, File, Account, Ip, ProcessSpawn, ProcessInjection, Url, CVE, Vulnerability, Malware]</t>
+  </si>
+  <si>
+    <t>TTP--InitalAccess</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>shell--</t>
+  </si>
+  <si>
+    <t>script--</t>
+  </si>
+  <si>
+    <t>ETPro</t>
   </si>
 </sst>
 </file>
@@ -444,18 +465,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -533,30 +548,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -566,26 +579,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -788,6 +781,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -878,9 +891,7 @@
         <left style="thin">
           <color theme="1"/>
         </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="1"/>
         </top>
@@ -1003,7 +1014,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0E3B4673-AD25-6A4D-8F8D-064CEFD4B92B}" name="Table10" displayName="Table10" ref="A1:N2" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0E3B4673-AD25-6A4D-8F8D-064CEFD4B92B}" name="Table10" displayName="Table10" ref="A1:N2" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:N2" xr:uid="{0E3B4673-AD25-6A4D-8F8D-064CEFD4B92B}"/>
   <tableColumns count="14">
     <tableColumn id="2" xr3:uid="{E605C444-C226-4346-BCBA-52D62757D0C6}" name="Index"/>
@@ -1026,7 +1037,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EDB04BC-9502-994C-A816-5C39F9E09A2A}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EDB04BC-9502-994C-A816-5C39F9E09A2A}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:J2" xr:uid="{2EDB04BC-9502-994C-A816-5C39F9E09A2A}"/>
   <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{F0D4A855-D7F0-4F42-8ABD-537F34A0DEAD}" name="Index"/>
@@ -1045,15 +1056,15 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}" name="Table8" displayName="Table8" ref="A1:J2" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}" name="Table8" displayName="Table8" ref="A1:J2" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:J2" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}"/>
   <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{989B0AC2-E3DE-1F4F-AD3E-6D8F7E2B04ED}" name="Index"/>
     <tableColumn id="3" xr3:uid="{A7865D69-B2FE-EC42-9D1B-F15A0B19A0B6}" name="DataSource"/>
     <tableColumn id="1" xr3:uid="{A01D65E2-99C8-2443-8E32-029375F86783}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{9BFC03D1-5A49-C547-B104-0C491A21FB0D}" name="ServiceFileName" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9BFC03D1-5A49-C547-B104-0C491A21FB0D}" name="ServiceFileName" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{9D065F18-50B6-D54E-A0A9-54FCF0CB7050}" name="ServiceAccount"/>
-    <tableColumn id="6" xr3:uid="{DA9F6BFD-0EAC-2646-B078-7BF0150A774E}" name="ServiceName" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{DA9F6BFD-0EAC-2646-B078-7BF0150A774E}" name="ServiceName" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{E50E5F73-527F-834E-BCF9-BECBE813793F}" name="ServiceType"/>
     <tableColumn id="8" xr3:uid="{CD990353-D1B3-CF47-93B4-741F7D4ABCFD}" name="ServiceStartType"/>
     <tableColumn id="9" xr3:uid="{D94FBBD8-A009-E44D-A7B4-32423D3043F1}" name="NsObject"/>
@@ -1064,8 +1075,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D6" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="A1:D6" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D7" totalsRowShown="0" headerRowDxfId="30">
+  <autoFilter ref="A1:D7" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -1080,8 +1091,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}" name="Table7" displayName="Table7" ref="A1:E9" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="A1:E9" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}" name="Table7" displayName="Table7" ref="A1:E10" totalsRowShown="0" headerRowDxfId="26">
+  <autoFilter ref="A1:E10" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E10">
+    <sortCondition ref="A1:A10"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{4082B79E-9BAC-EE49-9D02-A13CEF584AC0}" name="Index" dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{3BA7C236-8980-8148-BF61-C4D7D7EB4FF6}" name="AlertType" dataDxfId="24"/>
@@ -1094,8 +1108,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A1:L26" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L27" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="A1:L27" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7F4E572F-19FC-1C42-BF21-EF3EAA1CF83A}" name="Index"/>
     <tableColumn id="3" xr3:uid="{5246F5AC-4F4A-BC4C-892F-2E08E3349789}" name="DataSource"/>
@@ -1115,8 +1129,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}" name="Table5" displayName="Table5" ref="A1:K5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:K5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}" name="Table5" displayName="Table5" ref="A1:K6" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:K6" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{76C592A4-DC6F-6D43-92A4-408F9DA9250D}" name="Index"/>
     <tableColumn id="3" xr3:uid="{8DB66F33-29D6-F943-8797-F32327A212C4}" name="DataSource"/>
@@ -1135,7 +1149,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}" name="Table2" displayName="Table2" ref="A1:O2" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}" name="Table2" displayName="Table2" ref="A1:O2" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:O2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}"/>
   <tableColumns count="15">
     <tableColumn id="2" xr3:uid="{C61E54E6-397A-FC46-AAD6-240590F974E3}" name="Index"/>
@@ -1148,8 +1162,8 @@
     <tableColumn id="8" xr3:uid="{31283C92-1EFA-6A42-9DBF-04528B88D2E1}" name="DstUrl"/>
     <tableColumn id="9" xr3:uid="{51BA9213-7570-8E41-AE11-0FE14C3D5701}" name="Protocol"/>
     <tableColumn id="10" xr3:uid="{A2C22DBE-E948-9E46-816B-78C44758D5EF}" name="InitiatingFileName"/>
-    <tableColumn id="11" xr3:uid="{6B8E6EFD-C9FC-D343-A788-A722434ECD48}" name="InitiatingFilePath" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{AC978556-86B3-B84E-A543-525614EB9453}" name="InititatingCommandLine" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{6B8E6EFD-C9FC-D343-A788-A722434ECD48}" name="InitiatingFilePath" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{AC978556-86B3-B84E-A543-525614EB9453}" name="InititatingCommandLine" dataDxfId="14"/>
     <tableColumn id="13" xr3:uid="{880D4AC4-B22D-434F-8A35-AED8146625FB}" name="Account"/>
     <tableColumn id="14" xr3:uid="{C092A7D2-DC1E-F84A-A2FD-A8D268736295}" name="NsObject"/>
     <tableColumn id="15" xr3:uid="{6D50EE84-9CBF-294C-BBA4-C4B004FED849}" name="NsMeta"/>
@@ -1159,18 +1173,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}" name="Table9" displayName="Table9" ref="A1:K2" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}" name="Table9" displayName="Table9" ref="A1:K2" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:K2" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}"/>
   <tableColumns count="11">
-    <tableColumn id="2" xr3:uid="{DDC92C39-DF7D-F145-A125-35CE110317A9}" name="Index" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{DDC92C39-DF7D-F145-A125-35CE110317A9}" name="Index" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{42FB8108-D944-5E41-9DA2-C80682897705}" name="DataSource"/>
-    <tableColumn id="4" xr3:uid="{C78F30C1-F3D2-4947-AA2C-9F4F7C73441D}" name="Description" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C78F30C1-F3D2-4947-AA2C-9F4F7C73441D}" name="Description" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{F8DB3A8C-CCA7-FA4B-B054-EEF4AFBDDB4A}" name="SrcProcess"/>
     <tableColumn id="6" xr3:uid="{85F4D6B8-4608-3C44-97D3-0C4E61F02C01}" name="SrcProcessPath"/>
     <tableColumn id="7" xr3:uid="{6A22DAC2-2589-7B4E-9463-85B1BB8F7F22}" name="TgtProcess"/>
     <tableColumn id="8" xr3:uid="{F21FFD42-BED9-6D4E-B1E8-DC3622EA9839}" name="TgtProcessPath"/>
     <tableColumn id="9" xr3:uid="{9C5EFD03-F9F2-9B49-B696-939146DC942E}" name="Access"/>
-    <tableColumn id="10" xr3:uid="{0F18CD86-04B9-174A-A498-FA50ADE31CAB}" name="Trace" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{0F18CD86-04B9-174A-A498-FA50ADE31CAB}" name="Trace" dataDxfId="10"/>
     <tableColumn id="11" xr3:uid="{870A7B54-C726-2743-8557-6389004E2EB0}" name="NsObject"/>
     <tableColumn id="12" xr3:uid="{D7C8AEEE-0E43-864C-839B-BFF4391557E8}" name="NsMeta"/>
   </tableColumns>
@@ -1179,26 +1193,26 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CEFAFF50-3320-0243-AFDF-77D01F97C428}" name="Table12" displayName="Table12" ref="A1:D2" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CEFAFF50-3320-0243-AFDF-77D01F97C428}" name="Table12" displayName="Table12" ref="A1:D2" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:D2" xr:uid="{CEFAFF50-3320-0243-AFDF-77D01F97C428}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{21897088-4E03-7549-9652-A4BEEE760E89}" name="Index"/>
     <tableColumn id="3" xr3:uid="{605B641F-5F59-B94F-991C-43300CC9BBDA}" name="DataSource"/>
     <tableColumn id="4" xr3:uid="{7427C911-F326-EF41-878F-ED1DD5F1C542}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{29472079-B95D-E845-9253-44428660972F}" name="ShellCommand" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{29472079-B95D-E845-9253-44428660972F}" name="ShellCommand" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:D2" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{77268EB9-1251-9745-92E1-436BE6AE585B}" name="Index"/>
     <tableColumn id="3" xr3:uid="{59DDF428-3E0B-6643-8972-9BD2488E3FA7}" name="DataSource"/>
-    <tableColumn id="6" xr3:uid="{575BE17D-399F-694F-BA78-2C24B0637E65}" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{1DA5E534-877D-D843-9D4B-10ED484674AF}" name="ScriptContents" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{575BE17D-399F-694F-BA78-2C24B0637E65}" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1DA5E534-877D-D843-9D4B-10ED484674AF}" name="ScriptContents" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1536,36 +1550,36 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="122.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1573,19 +1587,19 @@
         <v>44122</v>
       </c>
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1618,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1624,52 +1638,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1705,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1704,40 +1721,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1777,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1765,43 +1785,44 @@
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" customWidth="1"/>
-    <col min="4" max="4" width="61.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="61.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1810,9 +1831,9 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="F2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1828,44 +1849,41 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="74.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="74.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>100</v>
+      <c r="D2" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1873,13 +1891,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>102</v>
+        <v>125</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1887,13 +1905,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>118</v>
+        <v>95</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1901,10 +1919,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1912,10 +1930,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1931,11 +1960,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1943,121 +1972,129 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="102.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="102.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="153.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="E9" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="E5" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="E6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="E9" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2073,19 +2110,19 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51" style="6" customWidth="1"/>
-    <col min="4" max="4" width="75.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" style="5" customWidth="1"/>
+    <col min="4" max="4" width="75.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="54.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="29.1640625" bestFit="1" customWidth="1"/>
@@ -2097,54 +2134,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2153,10 +2187,10 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2165,10 +2199,10 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2177,10 +2211,10 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="D5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2189,10 +2223,10 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="D6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2201,10 +2235,10 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="D7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2213,10 +2247,10 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2225,10 +2259,10 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="D9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2237,10 +2271,10 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="D10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2249,10 +2283,10 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="D11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -2261,10 +2295,10 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="D12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -2273,10 +2307,10 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -2285,10 +2319,10 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -2297,10 +2331,10 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="D15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2309,10 +2343,10 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -2321,10 +2355,10 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="D17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -2333,10 +2367,10 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="D18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -2345,10 +2379,10 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="D19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -2357,10 +2391,10 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="6"/>
+      <c r="D20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -2369,10 +2403,10 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="6"/>
+      <c r="D21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -2381,10 +2415,10 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="D22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -2393,10 +2427,10 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="6"/>
+      <c r="D23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -2405,22 +2439,22 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="D24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="D25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -2429,10 +2463,22 @@
       <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="6"/>
+      <c r="D26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2447,11 +2493,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2470,37 +2516,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2509,16 +2555,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2526,16 +2563,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2543,10 +2580,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2554,10 +2591,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2577,7 +2631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2589,56 +2643,56 @@
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="61.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.1640625" customWidth="1"/>
     <col min="15" max="15" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2647,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2667,64 +2721,64 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="61.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
     <col min="11" max="11" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2743,7 +2797,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2751,26 +2805,29 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="114.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="114.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>30</v>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2790,7 +2847,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2802,22 +2859,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
